--- a/biology/Zoologie/Bassaricyon_alleni/Bassaricyon_alleni.xlsx
+++ b/biology/Zoologie/Bassaricyon_alleni/Bassaricyon_alleni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olingo d'Allen (Bassaricyon alleni) est une espèce d'olingo vivant en Amérique du Sud. (À ne pas confondre avec le galago d'Allen)
 On le trouve en Bolivie, en Équateur, au Pérou et enfin au Venezuela.
